--- a/tpn/tools/xlsx2data/demo/stroe.xlsx
+++ b/tpn/tools/xlsx2data/demo/stroe.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="@Store" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
